--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A675F-C438-764C-B5BF-5CCF887BA1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB5ED6-AC6C-BA48-9BB2-F36B903B727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -3613,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4911,8 +4911,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB5ED6-AC6C-BA48-9BB2-F36B903B727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79F701B-BCA3-46B6-820E-9491754EFD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -995,19 +984,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1551,7 +1540,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="288">
@@ -1607,8 +1596,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1631,14 +1620,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1668,7 +1657,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1770,7 +1759,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1798,7 +1787,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,10 +1840,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1890,7 +1879,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1920,16 +1909,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1950,7 +1939,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1972,10 +1961,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1984,10 +1973,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2004,7 +1993,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2016,13 +2005,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2060,7 +2049,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,19 +2093,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2141,7 +2130,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2153,10 +2142,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2187,13 +2176,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2202,7 +2191,7 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2211,7 +2200,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2225,7 +2214,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2238,14 +2227,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2441,7 +2430,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2503,7 +2492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2775,7 +2764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2805,7 +2794,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3617,20 +3606,20 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
@@ -3638,7 +3627,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
@@ -3646,7 +3635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
@@ -3654,7 +3643,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
@@ -3671,7 +3660,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
@@ -3679,7 +3668,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
@@ -3687,7 +3676,7 @@
         <v>1162120917</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
@@ -3695,7 +3684,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
@@ -3703,7 +3692,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
@@ -3711,7 +3700,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
@@ -3719,7 +3708,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
@@ -3727,7 +3716,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +3725,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
@@ -3745,7 +3734,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
@@ -3754,7 +3743,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
@@ -3763,7 +3752,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
@@ -3772,7 +3761,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
@@ -3781,7 +3770,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
@@ -3790,7 +3779,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
         <v>133</v>
       </c>
@@ -3839,7 +3828,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +3852,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3887,7 +3876,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
@@ -3911,7 +3900,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
@@ -3927,7 +3916,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
@@ -3947,7 +3936,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
@@ -3967,7 +3956,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
@@ -3989,7 +3978,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
@@ -4011,7 +4000,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
@@ -4033,7 +4022,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
@@ -4049,7 +4038,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
@@ -4065,7 +4054,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
@@ -4081,7 +4070,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
@@ -4097,7 +4086,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
@@ -4113,7 +4102,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
@@ -4129,7 +4118,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
@@ -4145,7 +4134,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
@@ -4161,7 +4150,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
@@ -4177,7 +4166,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
@@ -4193,7 +4182,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
@@ -4221,25 +4210,25 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.569618474670319E-2</v>
+        <v>6.6299334388215281E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.569618474670319E-2</v>
+        <v>6.6299334388215281E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.569618474670319E-2</v>
+        <v>6.6299334388215281E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11731461561911286</v>
+        <v>0.11839166855038444</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4270,7 +4259,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
@@ -4284,7 +4273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
@@ -4294,7 +4283,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
@@ -4304,7 +4293,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
@@ -4315,7 +4304,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -4325,7 +4314,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
@@ -4335,7 +4324,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4346,7 +4335,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>263</v>
       </c>
@@ -4356,7 +4345,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
@@ -4367,7 +4356,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -4380,7 +4369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
@@ -4392,7 +4381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -4403,7 +4392,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>50</v>
       </c>
@@ -4414,7 +4403,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
@@ -4425,7 +4414,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
@@ -4436,7 +4425,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
@@ -4447,7 +4436,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
@@ -4458,7 +4447,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>262</v>
       </c>
@@ -4468,7 +4457,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
@@ -4480,7 +4469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4492,7 +4481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
@@ -4505,7 +4494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
@@ -4516,7 +4505,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
@@ -4527,7 +4516,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
@@ -4537,7 +4526,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
@@ -4548,7 +4537,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
@@ -4558,85 +4547,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
@@ -4644,7 +4633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
@@ -4655,7 +4644,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
@@ -4672,7 +4661,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -4688,7 +4677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>126</v>
       </c>
@@ -4706,7 +4695,7 @@
         <v>23767936</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>105</v>
       </c>
@@ -4727,7 +4716,7 @@
         <v>15757248</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
         <v>247</v>
       </c>
@@ -4748,7 +4737,7 @@
         <v>5068887</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
         <v>257</v>
       </c>
@@ -4766,7 +4755,7 @@
         <v>646577</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>246</v>
       </c>
@@ -4787,7 +4776,7 @@
         <v>237679.36000000002</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>109</v>
       </c>
@@ -4805,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>172</v>
       </c>
@@ -4823,7 +4812,7 @@
         <v>9161.3333333333339</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
@@ -4915,19 +4904,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4936,7 +4925,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4951,7 +4940,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
@@ -4965,13 +4954,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
@@ -4991,7 +4980,7 @@
       <c r="H4" s="284"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
@@ -5006,13 +4995,13 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>26496.356907600002</v>
+        <v>26263.9327242</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
@@ -5038,7 +5027,7 @@
       <c r="H6" s="277"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
@@ -5055,15 +5044,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
         <v>190</v>
       </c>
@@ -5071,7 +5060,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5082,7 +5071,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
@@ -5096,7 +5085,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
@@ -5108,8 +5097,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5120,7 +5109,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
@@ -5131,7 +5120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
@@ -5146,7 +5135,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
@@ -5155,8 +5144,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
         <v>183</v>
       </c>
@@ -5171,7 +5160,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
@@ -5186,7 +5175,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
@@ -5197,7 +5186,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
@@ -5209,7 +5198,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
@@ -5225,7 +5214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
@@ -5238,10 +5227,10 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.120062211583353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15.973412025215914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
@@ -5257,7 +5246,7 @@
         <v>1.0590265851805289</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
@@ -5270,11 +5259,11 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.569618474670319E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.6299334388215281E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>6</v>
@@ -5294,45 +5283,45 @@
       </c>
       <c r="H28" s="274"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.376917790005844</v>
+        <v>12.412529863038664</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>24.664928902613113</v>
+        <v>24.739257004971549</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.561079752948054</v>
+        <v>14.602976309457251</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>21.447764263141838</v>
+        <v>21.512397395627435</v>
       </c>
       <c r="H29" s="275"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
@@ -5342,7 +5331,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>225</v>
@@ -5353,14 +5342,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
@@ -5370,7 +5359,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>239</v>
@@ -5380,14 +5369,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
@@ -5397,7 +5386,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>231</v>
@@ -5407,19 +5396,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>230</v>
@@ -5429,886 +5418,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6383,7 +6372,7 @@
       <selection pane="topRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6391,7 +6380,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6399,7 +6388,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -6424,7 +6413,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>9</v>
@@ -6453,7 +6442,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>10</v>
@@ -6475,7 +6464,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>133</v>
@@ -6525,7 +6514,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>11</v>
@@ -6576,7 +6565,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>12</v>
@@ -6627,7 +6616,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>105</v>
@@ -6678,7 +6667,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>102</v>
@@ -6729,7 +6718,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>103</v>
@@ -6780,7 +6769,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>106</v>
@@ -6831,7 +6820,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>240</v>
@@ -6882,7 +6871,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>241</v>
@@ -6933,7 +6922,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>233</v>
@@ -6984,7 +6973,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>242</v>
@@ -7035,7 +7024,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>109</v>
@@ -7086,7 +7075,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>257</v>
@@ -7137,7 +7126,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>98</v>
@@ -7188,7 +7177,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>104</v>
@@ -7239,7 +7228,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>235</v>
@@ -7290,7 +7279,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>107</v>
@@ -7341,7 +7330,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>111</v>
@@ -7392,7 +7381,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>112</v>
@@ -7443,7 +7432,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>113</v>
@@ -7494,7 +7483,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>128</v>
@@ -7545,7 +7534,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>134</v>
@@ -7596,7 +7585,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>13</v>
@@ -7647,7 +7636,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7698,7 +7687,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>116</v>
@@ -7749,7 +7738,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>148</v>
@@ -7800,7 +7789,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>15</v>
@@ -7851,7 +7840,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>115</v>
@@ -7902,7 +7891,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>16</v>
@@ -7953,7 +7942,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -8004,7 +7993,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -8055,7 +8044,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>137</v>
@@ -8106,7 +8095,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>138</v>
@@ -8157,7 +8146,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>136</v>
@@ -8208,7 +8197,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>140</v>
@@ -8259,7 +8248,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>157</v>
@@ -8310,7 +8299,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>252</v>
@@ -8328,7 +8317,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>97</v>
@@ -8379,7 +8368,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>234</v>
@@ -8430,7 +8419,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>108</v>
@@ -8481,7 +8470,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>121</v>
@@ -8532,7 +8521,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>129</v>
@@ -8583,7 +8572,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>236</v>
@@ -8634,7 +8623,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>123</v>
@@ -8685,7 +8674,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>149</v>
@@ -8703,7 +8692,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>146</v>
@@ -8754,7 +8743,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>147</v>
@@ -8805,7 +8794,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
         <v>264</v>
@@ -8856,7 +8845,7 @@
       </c>
       <c r="N52" s="87"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="102" t="s">
         <v>124</v>
@@ -8873,7 +8862,7 @@
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="95" t="s">
         <v>19</v>
@@ -8923,7 +8912,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>120</v>
@@ -8973,7 +8962,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
         <v>122</v>
@@ -9023,7 +9012,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="98" t="s">
         <v>20</v>
@@ -9073,1260 +9062,1260 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10370,7 +10359,7 @@
       <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10378,11 +10367,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>21</v>
@@ -10398,7 +10387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -10422,7 +10411,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -10438,7 +10427,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10453,7 +10442,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
@@ -10478,7 +10467,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
@@ -10501,13 +10490,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>31</v>
@@ -10527,7 +10516,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -10552,7 +10541,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -10580,7 +10569,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
@@ -10608,7 +10597,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
@@ -10636,7 +10625,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -10664,7 +10653,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -10691,7 +10680,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>158</v>
       </c>
@@ -10713,7 +10702,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
@@ -10735,7 +10724,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10756,7 +10745,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10781,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>119</v>
       </c>
@@ -10808,7 +10797,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -10829,7 +10818,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
@@ -10855,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10864,7 +10853,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
@@ -10886,7 +10875,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
@@ -10915,7 +10904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>56</v>
       </c>
@@ -10948,7 +10937,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>58</v>
       </c>
@@ -10981,7 +10970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -11011,7 +11000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -11023,7 +11012,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
@@ -11049,7 +11038,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
@@ -11076,7 +11065,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
@@ -11103,7 +11092,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
@@ -11133,7 +11122,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
@@ -11160,7 +11149,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -11186,7 +11175,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -11213,7 +11202,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -11240,7 +11229,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
@@ -11261,7 +11250,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
@@ -11282,7 +11271,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
@@ -11303,7 +11292,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
@@ -11324,7 +11313,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
@@ -11350,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11359,7 +11348,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>76</v>
       </c>
@@ -11378,7 +11367,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>78</v>
       </c>
@@ -11397,7 +11386,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>79</v>
       </c>
@@ -11427,7 +11416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>81</v>
       </c>
@@ -11457,7 +11446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>83</v>
       </c>
@@ -11484,7 +11473,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -11511,20 +11500,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>87</v>
       </c>
@@ -11541,7 +11530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
@@ -11562,7 +11551,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11571,7 +11560,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>150</v>
       </c>
@@ -11582,7 +11571,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>89</v>
       </c>
@@ -11597,7 +11586,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>90</v>
       </c>
@@ -11613,7 +11602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>92</v>
       </c>
@@ -11628,7 +11617,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11637,7 +11626,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>153</v>
       </c>
@@ -11651,7 +11640,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>94</v>
       </c>
@@ -11672,7 +11661,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>139</v>
       </c>
@@ -11693,7 +11682,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>141</v>
       </c>
@@ -11714,7 +11703,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
@@ -11729,7 +11718,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
@@ -11750,7 +11739,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11760,7 +11749,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>154</v>
       </c>
@@ -11774,7 +11763,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>140</v>
       </c>
@@ -11795,7 +11784,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
@@ -11810,7 +11799,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>143</v>
       </c>
@@ -11831,7 +11820,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>127</v>
@@ -11853,7 +11842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -11872,7 +11861,7 @@
       <c r="I73" s="273"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>126</v>
       </c>
@@ -11893,7 +11882,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>105</v>
       </c>
@@ -11923,7 +11912,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
@@ -11944,7 +11933,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
         <v>247</v>
       </c>
@@ -11974,7 +11963,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>172</v>
       </c>
@@ -12004,7 +11993,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
@@ -12035,7 +12024,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>109</v>
       </c>
@@ -12067,7 +12056,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
         <v>257</v>
       </c>
@@ -12097,7 +12086,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>246</v>
       </c>
@@ -12127,7 +12116,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
@@ -12157,7 +12146,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
@@ -12178,7 +12167,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
@@ -12209,7 +12198,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
@@ -12230,28 +12219,28 @@
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0435291367629552E-2</v>
+        <v>5.0898332380212394E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4836472107801494E-2</v>
+        <v>5.5339919889756096E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2034500045628396E-2</v>
+        <v>6.2604032151764577E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
@@ -12281,32 +12270,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.569618474670319E-2</v>
+        <v>6.6299334388215281E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.569618474670319E-2</v>
+        <v>6.6299334388215281E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.569618474670319E-2</v>
+        <v>6.6299334388215281E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12317,7 +12306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
@@ -12339,7 +12328,7 @@
       <c r="I92" s="286"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12357,18 +12346,18 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.98824642874877</v>
+        <v>27.061596997328607</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.586818408956802</v>
+        <v>31.682005720509508</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
@@ -12385,22 +12374,22 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.031937599444589</v>
+        <v>34.13956030366667</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.031937599444589</v>
+        <v>34.13956030366667</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12429,31 +12418,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18250215.62686979</v>
+        <v>18305212.902577884</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.417928250871045</v>
+        <v>13.454396447089842</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>15.704231255025066</v>
+        <v>15.751556171824662</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.447764263141838</v>
+        <v>21.512397395627435</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>144</v>
       </c>
@@ -12471,7 +12460,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
         <v>145</v>
       </c>
@@ -12492,41 +12481,41 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>18250215.62686979</v>
+        <v>18305212.902577884</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.376917790005844</v>
+        <v>12.412529863038664</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.417928250871045</v>
+        <v>13.454396447089842</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.561079752948054</v>
+        <v>14.602976309457251</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>15.704231255025064</v>
+        <v>15.751556171824662</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>21.447764263141838</v>
+        <v>21.512397395627435</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>162</v>
       </c>
@@ -12553,41 +12542,41 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19662955.32993358</v>
+        <v>19725137.520395748</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.381904486831935</v>
+        <v>14.427385865851674</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>16.919887631566983</v>
+        <v>16.973395136296087</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>16.919887631566983</v>
+        <v>16.973395136296087</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>16.919887631566983</v>
+        <v>16.973395136296087</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.108024543676947</v>
+        <v>23.181101431625326</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>197</v>
       </c>
@@ -12614,40 +12603,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17628105.206538025</v>
+        <v>17680386.528584667</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.37941113841889</v>
+        <v>13.41995786444517</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.168907941219015</v>
+        <v>15.213895791692964</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.740483692257518</v>
+        <v>15.788185722876669</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.312059443296022</v>
+        <v>16.362475654060376</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>22.277894403409391</v>
+        <v>22.34674941362638</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79F701B-BCA3-46B6-820E-9491754EFD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BE755B-9226-441B-ACF8-92FBA7C0809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4216,19 +4216,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11839166855038444</v>
+        <v>0.11864309388447582</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>22.6</v>
+        <v>22.55</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>26263.9327242</v>
+        <v>26205.826678350004</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5044,7 +5044,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5090,10 +5090,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5140,7 +5140,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.973412025215914</v>
+        <v>15.93956158922737</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5289,20 +5289,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.412529863038664</v>
+        <v>11.340890074539496</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>24.739257004971549</v>
+        <v>22.012134353247159</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.602976309457251</v>
+        <v>13.34222361710529</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>21.512397395627435</v>
+        <v>19.140986394127967</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12225,17 +12225,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0898332380212394E-2</v>
+        <v>5.1006423856412374E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5339919889756096E-2</v>
+        <v>5.5457443850835765E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2604032151764577E-2</v>
+        <v>6.273698272076958E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12276,17 +12276,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6299334388215281E-2</v>
+        <v>6.6440132575306454E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12346,14 +12346,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>27.061596997328607</v>
+        <v>24.724308150703553</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.682005720509508</v>
+        <v>28.947646588290382</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.13956030366667</v>
+        <v>31.194178647609387</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.13956030366667</v>
+        <v>31.194178647609387</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12424,21 +12424,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18305212.902577884</v>
+        <v>16725356.295362607</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.454396447089842</v>
+        <v>12.292350808875691</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>15.751556171824662</v>
+        <v>14.392096425334891</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.512397395627435</v>
+        <v>19.140986394127967</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12487,27 +12487,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>18305212.902577884</v>
+        <v>16725356.295362607</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.412529863038664</v>
+        <v>11.340890074539496</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.454396447089842</v>
+        <v>12.292350808875691</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.602976309457251</v>
+        <v>13.34222361710529</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>15.751556171824662</v>
+        <v>14.392096425334891</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>21.512397395627435</v>
+        <v>19.140986394127967</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12548,27 +12548,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19725137.520395748</v>
+        <v>18023356.428342815</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.427385865851674</v>
+        <v>13.182666915280549</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>16.973395136296087</v>
+        <v>15.509019900330058</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>16.973395136296087</v>
+        <v>15.509019900330058</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>16.973395136296087</v>
+        <v>15.509019900330058</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.181101431625326</v>
+        <v>20.62645566881476</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12609,27 +12609,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17680386.528584667</v>
+        <v>16154277.211219562</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.41995786444517</v>
+        <v>12.261778494910022</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.213895791692964</v>
+        <v>13.900685354602874</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.788185722876669</v>
+        <v>14.425621758717675</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>16.362475654060376</v>
+        <v>14.950558162832476</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>22.34674941362638</v>
+        <v>19.883721031471364</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BE755B-9226-441B-ACF8-92FBA7C0809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CF0186-CA32-4979-BD63-484900C97C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4216,19 +4227,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11864309388447582</v>
+        <v>0.12067641146296035</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4954,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>22.55</v>
+        <v>22.15</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4995,7 +5006,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>26205.826678350004</v>
+        <v>25740.978311549999</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5044,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5238,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.93956158922737</v>
+        <v>15.670990537272774</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,7 +5270,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5289,20 +5300,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.340890074539496</v>
+        <v>11.385154453592218</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.012134353247159</v>
+        <v>22.103704999724819</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.34222361710529</v>
+        <v>13.394299357167316</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.140986394127967</v>
+        <v>19.220613043238973</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12225,17 +12236,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1006423856412374E-2</v>
+        <v>5.1880577208683026E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5457443850835765E-2</v>
+        <v>5.6407879242798165E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.273698272076958E-2</v>
+        <v>6.3812175600613322E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12276,17 +12287,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6440132575306454E-2</v>
+        <v>6.7578790419257781E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12346,14 +12357,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.724308150703553</v>
+        <v>24.813371548667554</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.947646588290382</v>
+        <v>29.068069018462651</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12374,14 +12385,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.194178647609387</v>
+        <v>31.33270916101052</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.194178647609387</v>
+        <v>31.33270916101052</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12424,21 +12435,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16725356.295362607</v>
+        <v>16794933.90487368</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.292350808875691</v>
+        <v>12.336631058310006</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.392096425334891</v>
+        <v>14.451967656024626</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.140986394127967</v>
+        <v>19.220613043238973</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12487,27 +12498,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16725356.295362607</v>
+        <v>16794933.90487368</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.340890074539496</v>
+        <v>11.385154453592218</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.292350808875691</v>
+        <v>12.336631058310006</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.34222361710529</v>
+        <v>13.394299357167316</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.392096425334891</v>
+        <v>14.451967656024626</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.140986394127967</v>
+        <v>19.220613043238973</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12548,27 +12559,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18023356.428342815</v>
+        <v>18103396.516829688</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.182666915280549</v>
+        <v>13.241209941413725</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.509019900330058</v>
+        <v>15.57789404872203</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.509019900330058</v>
+        <v>15.57789404872203</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.509019900330058</v>
+        <v>15.57789404872203</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.62645566881476</v>
+        <v>20.718055884538522</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12609,27 +12620,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16154277.211219562</v>
+        <v>16220026.757501794</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.261778494910022</v>
+        <v>12.313182197502972</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.900685354602874</v>
+        <v>13.957262553516017</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.425621758717675</v>
+        <v>14.486096702944673</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.950558162832476</v>
+        <v>15.014930852373329</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.883721031471364</v>
+        <v>19.96933446388875</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CF0186-CA32-4979-BD63-484900C97C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D572DF3F-2E27-4AD2-B28E-2BF0814B0FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -967,27 +946,59 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1044.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒安國際</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0007</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CNY</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒安國際</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier 3</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1020,7 @@
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
     <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1202,13 +1213,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1554,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2196,7 +2200,14 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3613,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="271" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="191" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -3664,7 +3675,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>270</v>
@@ -3673,15 +3684,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>1162120917</v>
@@ -3689,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3713,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3721,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3738,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3865,7 +3876,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>15757248</v>
@@ -3889,7 +3900,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>5068887</v>
@@ -3913,7 +3924,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3929,7 +3940,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>646577</v>
@@ -3949,7 +3960,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>6871</v>
@@ -3969,7 +3980,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <f>4126200-4644583</f>
@@ -3991,7 +4002,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <f>808830+5967+54201+30822</f>
@@ -4013,7 +4024,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <f>1469761+50745</f>
@@ -4051,7 +4062,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4067,7 +4078,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4099,7 +4110,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4147,7 +4158,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4163,7 +4174,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4179,7 +4190,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4195,7 +4206,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.7+0.7</f>
@@ -4223,23 +4234,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12067641146296035</v>
+        <v>0.12178356301721156</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4272,21 +4283,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4296,7 +4307,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4306,7 +4317,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4317,7 +4328,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4327,7 +4338,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4337,7 +4348,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4348,7 +4359,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4358,7 +4369,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4369,7 +4380,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4377,24 +4388,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4405,7 +4416,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4416,7 +4427,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4427,7 +4438,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4438,7 +4449,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4449,7 +4460,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4460,7 +4471,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4470,31 +4481,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4502,12 +4513,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4518,7 +4529,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4529,7 +4540,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4539,7 +4550,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4550,7 +4561,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4560,25 +4571,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4590,55 +4601,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4646,10 +4657,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4657,18 +4668,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="272">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="272"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4677,20 +4688,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="273"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4708,7 +4719,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4729,7 +4740,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4750,7 +4761,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4768,7 +4779,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4789,7 +4800,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4807,7 +4818,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4825,7 +4836,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4911,8 +4922,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4953,62 +4964,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="278" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>22.15</v>
+        <v>21.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="280" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
-      <c r="D4" s="281"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="284">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1162120917</v>
       </c>
-      <c r="H4" s="284"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="282">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="283"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="276">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>25740.978311549999</v>
-      </c>
-      <c r="H5" s="276"/>
+        <v>25508.554128149997</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5031,16 +5042,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="277" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="277"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5055,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5065,40 +5076,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5111,29 +5122,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5143,12 +5154,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5158,29 +5169,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.66296240447635002</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5188,7 +5199,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5199,26 +5210,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>3.8544925959634583E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5227,30 +5238,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.670990537272774</v>
+        <v>15.528523351224479</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5259,18 +5270,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>8.6182633050958496E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5280,62 +5291,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="274" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="274"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.385154453592218</v>
+        <v>11.415640858920009</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.103704999724819</v>
+        <v>22.165975896796787</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.394299357167316</v>
-      </c>
-      <c r="G29" s="275">
+        <v>13.43016571637648</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.220613043238973</v>
-      </c>
-      <c r="H29" s="275"/>
+        <v>19.274761649388513</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5345,25 +5356,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5373,7 +5384,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5383,14 +5394,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5400,7 +5411,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5415,14 +5426,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6375,12 +6386,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D38" sqref="D38"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6407,16 +6418,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6434,7 +6445,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6467,7 +6478,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6478,7 +6489,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6630,7 +6641,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6681,7 +6692,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6732,7 +6743,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6783,7 +6794,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6834,7 +6845,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6885,7 +6896,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6936,7 +6947,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6987,7 +6998,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7038,7 +7049,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7089,7 +7100,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7140,7 +7151,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7191,7 +7202,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7242,7 +7253,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7293,7 +7304,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7344,7 +7355,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7395,7 +7406,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7446,7 +7457,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7497,7 +7508,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7548,7 +7559,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7701,7 +7712,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7752,7 +7763,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7854,7 +7865,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8058,7 +8069,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8109,7 +8120,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8160,7 +8171,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8211,7 +8222,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8262,7 +8273,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8313,7 +8324,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8331,7 +8342,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8382,7 +8393,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8433,7 +8444,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8484,7 +8495,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8535,7 +8546,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8586,7 +8597,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8637,7 +8648,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8688,7 +8699,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8705,50 +8716,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8757,10 +8768,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8808,167 +8819,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-0.44996258868911115</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>-0.79464533168577678</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8976,112 +8988,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.38824670294808183</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.24097189873352567</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="G56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.38824670294808183</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.24097189873352567</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9644,7 +9846,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10327,6 +10531,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10366,8 +10571,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10385,7 +10590,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10400,7 +10605,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10414,7 +10619,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10424,7 +10629,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10442,10 +10647,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10454,12 +10659,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10469,7 +10675,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10479,8 +10685,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10492,7 +10699,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10510,7 +10717,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10529,32 +10736,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10571,7 +10778,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10582,7 +10789,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10599,7 +10806,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10610,7 +10817,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10627,7 +10834,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10638,7 +10845,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10655,7 +10862,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10666,7 +10873,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10683,7 +10890,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10693,7 +10900,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10715,7 +10922,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10737,7 +10944,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10758,7 +10965,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10783,7 +10990,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10810,7 +11017,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10831,7 +11038,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10848,7 +11055,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10860,13 +11067,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10888,7 +11095,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10908,7 +11115,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10917,7 +11124,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10937,7 +11144,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10950,7 +11157,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10970,7 +11177,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11016,7 +11223,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11025,7 +11232,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11041,7 +11248,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11051,7 +11258,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11068,7 +11275,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11078,7 +11285,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11095,7 +11302,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11105,7 +11312,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11125,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11135,7 +11342,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11152,7 +11359,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11162,7 +11369,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11188,7 +11395,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11215,7 +11422,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11242,7 +11449,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11263,7 +11470,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11284,7 +11491,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11305,7 +11512,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11326,7 +11533,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11343,7 +11550,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11361,7 +11568,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11380,7 +11587,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11399,7 +11606,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11416,7 +11623,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11429,7 +11636,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11446,7 +11653,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11459,7 +11666,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11476,7 +11683,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11503,7 +11710,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11519,14 +11726,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11543,7 +11750,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11573,7 +11780,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11584,14 +11791,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="285">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11599,30 +11806,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="284">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="284">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11639,11 +11846,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11653,7 +11860,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11674,7 +11881,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11695,7 +11902,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11716,7 +11923,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11731,7 +11938,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11762,11 +11969,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11776,7 +11983,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11797,7 +12004,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11812,7 +12019,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11834,21 +12041,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="272">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="272"/>
-      <c r="E72" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="286"/>
-      <c r="H72" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="286"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11858,23 +12065,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="273"/>
-      <c r="E73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="273"/>
-      <c r="H73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="273"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11895,7 +12102,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11925,7 +12132,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11946,7 +12153,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11976,7 +12183,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12006,7 +12213,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12037,7 +12244,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12064,12 +12271,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12099,7 +12306,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12129,7 +12336,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12159,7 +12366,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12180,7 +12387,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12211,7 +12418,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12232,28 +12439,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1880577208683026E-2</v>
+        <v>5.2356558065220778E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6407879242798165E-2</v>
+        <v>5.6925396050089429E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3812175600613322E-2</v>
+        <v>6.4397623481768237E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12283,21 +12490,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7578790419257781E-2</v>
+        <v>6.8198795289638472E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12314,29 +12521,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="286"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="286"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12353,24 +12560,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.813371548667554</v>
+        <v>24.87576065713133</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.068069018462651</v>
+        <v>29.14996002876849</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12381,18 +12588,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.33270916101052</v>
+        <v>31.425758173027003</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.33270916101052</v>
+        <v>31.425758173027003</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12411,51 +12618,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16794933.90487368</v>
+        <v>16842248.850514423</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.336631058310006</v>
+        <v>12.367649471574197</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.451967656024626</v>
+        <v>14.492681961178763</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.220613043238973</v>
+        <v>19.274761649388513</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12473,7 +12680,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12494,31 +12701,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16794933.90487368</v>
+        <v>16842248.850514423</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.385154453592218</v>
+        <v>11.415640858920009</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.336631058310006</v>
+        <v>12.367649471574197</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.394299357167316</v>
+        <v>13.43016571637648</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.451967656024626</v>
+        <v>14.492681961178764</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.220613043238973</v>
+        <v>19.274761649388513</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12528,58 +12735,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18103396.516829688</v>
+        <v>18157158.3269361</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.241209941413725</v>
+        <v>13.280532474828249</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.57789404872203</v>
+        <v>15.624155852739117</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.57789404872203</v>
+        <v>15.624155852739117</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.57789404872203</v>
+        <v>15.624155852739117</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.718055884538522</v>
+        <v>20.779582470734823</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12589,58 +12796,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16220026.757501794</v>
+        <v>16264931.235988233</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.313182197502972</v>
+        <v>12.348086666874128</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.957262553516017</v>
+        <v>13.995902662156656</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.486096702944673</v>
+        <v>14.527160784557799</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.014930852373329</v>
+        <v>15.058418906958941</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.96933446388875</v>
+        <v>20.027172060061666</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12649,7 +12856,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12658,6 +12865,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D572DF3F-2E27-4AD2-B28E-2BF0814B0FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A156BF-393D-4D0C-BD75-0CCAC4A5D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.66296240447635002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21326576274860384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8544925959634583E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7203750464491323E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6182633050958496E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1162120917</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3940,7 +3103,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>646577</v>
@@ -4078,7 +3241,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4174,7 +3337,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4206,7 +3369,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.7+0.7</f>
@@ -4234,23 +3397,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12178356301721156</v>
+        <v>0.1212199168590912</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4283,13 +3446,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4348,7 +3511,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4359,7 +3522,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4460,7 +3623,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4471,7 +3634,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4631,7 +3794,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4649,7 +3812,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4657,10 +3820,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4670,16 +3833,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4688,10 +3851,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4740,7 +3903,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4761,7 +3924,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4779,7 +3942,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4818,7 +3981,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4836,7 +3999,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4922,8 +4085,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4964,62 +4127,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.95</v>
+        <v>22.05</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1162120917</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>25508.554128149997</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>25624.766219850004</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5042,16 +4205,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5066,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5076,40 +4239,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5122,29 +4285,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5154,12 +4317,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5167,9 +4330,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5177,59 +4340,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.66296240447635002</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.21326576274860384</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>3.8544925959634583E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.12338638351544982</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5238,30 +4401,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.528523351224479</v>
+        <v>15.600727595832023</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>0.01</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5270,18 +4433,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>8.6182633050958496E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0.01</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5291,62 +4454,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.415640858920009</v>
+        <v>11.399407642027606</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.165975896796787</v>
+        <v>22.132888599569501</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.43016571637648</v>
-      </c>
-      <c r="G29" s="278">
+        <v>13.411067814150126</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.274761649388513</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>19.245990086582175</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5356,7 +4519,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5367,14 +4530,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5384,7 +4547,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5394,14 +4557,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5411,7 +4574,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5426,14 +4589,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6377,7 +5540,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6391,7 +5553,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6418,16 +5580,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6445,7 +5607,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6478,7 +5640,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6845,7 +6007,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6896,7 +6058,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6947,7 +6109,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6998,7 +6160,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7100,7 +6262,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7253,7 +6415,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7763,7 +6925,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8273,7 +7435,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8324,7 +7486,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8393,7 +7555,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8597,7 +7759,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8699,7 +7861,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8717,14 +7879,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8768,7 +7930,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8819,7 +7981,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8870,7 +8032,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8921,7 +8083,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8938,7 +8100,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9138,7 +8300,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9188,7 +8350,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9238,7 +8400,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10742,7 +9904,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10900,7 +10062,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11312,7 +10474,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11780,7 +10942,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11794,11 +10956,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11809,11 +10971,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11825,11 +10987,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11846,7 +11008,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11923,7 +11085,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11969,7 +11131,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12004,7 +11166,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12043,19 +11205,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12065,18 +11227,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12153,7 +11315,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12183,7 +11345,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12213,7 +11375,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12276,7 +11438,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12306,7 +11468,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12387,7 +11549,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12418,7 +11580,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12439,28 +11601,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2356558065220778E-2</v>
+        <v>5.2114238230961236E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6925396050089429E-2</v>
+        <v>5.6661930439557251E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4397623481768237E-2</v>
+        <v>6.4099574449794611E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12490,21 +11652,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8198795289638472E-2</v>
+        <v>6.7883153441091068E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12526,24 +11688,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12560,24 +11722,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.87576065713133</v>
+        <v>24.842447587342185</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.14996002876849</v>
+        <v>29.106447692739337</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12588,18 +11750,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.425758173027003</v>
+        <v>31.376420481564555</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.425758173027003</v>
+        <v>31.376420481564555</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12618,14 +11780,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12642,21 +11804,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16842248.850514423</v>
+        <v>16817108.315476056</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.367649471574197</v>
+        <v>12.351086988293666</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.492681961178763</v>
+        <v>14.471048640006586</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.274761649388513</v>
+        <v>19.245990086582175</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12705,27 +11867,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16842248.850514423</v>
+        <v>16817108.315476056</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.415640858920009</v>
+        <v>11.399407642027606</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.367649471574197</v>
+        <v>12.351086988293666</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.43016571637648</v>
+        <v>13.411067814150126</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.492681961178764</v>
+        <v>14.471048640006586</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.274761649388513</v>
+        <v>19.245990086582175</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12735,21 +11897,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12762,31 +11924,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18157158.3269361</v>
+        <v>18128652.021044072</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.280532474828249</v>
+        <v>13.259682355315062</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.624155852739117</v>
+        <v>15.599626300370662</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.624155852739117</v>
+        <v>15.599626300370662</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.624155852739117</v>
+        <v>15.599626300370662</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.779582470734823</v>
+        <v>20.74695902142885</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12796,21 +11958,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12823,31 +11985,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16264931.235988233</v>
+        <v>16241054.278913338</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.348086666874128</v>
+        <v>12.329544998671334</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.995902662156656</v>
+        <v>13.975356644332164</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.527160784557799</v>
+        <v>14.505347057260394</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.058418906958941</v>
+        <v>15.035337470188624</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.027172060061666</v>
+        <v>19.996474554005513</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12856,7 +12018,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A156BF-393D-4D0C-BD75-0CCAC4A5D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5246E0A-7EBF-45BE-B355-57BA735A769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45637</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>1162120917</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3103,7 +3123,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>646577</v>
@@ -3207,9 +3227,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3225,7 +3245,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3241,7 +3261,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3256,10 +3276,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3271,9 +3292,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3320,10 +3341,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3337,9 +3359,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3353,7 +3375,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3369,7 +3391,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.7+0.7</f>
@@ -3397,23 +3419,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1212199168590912</v>
+        <v>0.12093812092397008</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3446,13 +3468,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3470,7 +3492,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3480,7 +3502,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3511,7 +3533,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3522,7 +3544,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3556,7 +3578,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3623,7 +3645,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3634,7 +3656,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3681,7 +3703,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3794,7 +3816,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3812,7 +3834,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3820,10 +3842,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3831,7 +3853,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3839,10 +3861,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3864,7 +3886,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3903,7 +3925,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3924,7 +3946,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3942,7 +3964,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3981,7 +4003,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3999,7 +4021,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4022,28 +4044,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4085,8 +4112,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4127,7 +4154,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4139,15 +4166,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>22.05</v>
+        <v>22.1</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4167,7 +4194,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4180,7 +4207,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>25624.766219850004</v>
+        <v>25682.8722657</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4214,7 +4241,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4229,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4239,40 +4266,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4285,29 +4312,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4317,12 +4344,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4332,7 +4359,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4340,21 +4367,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4362,10 +4389,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4373,58 +4400,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.12338638351544982</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.600727595832023</v>
+        <v>15.637078595730568</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4433,18 +4460,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4454,40 +4481,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.399407642027606</v>
+        <v>11.391121282160789</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>22.132888599569501</v>
+        <v>22.11601680719496</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.411067814150126</v>
+        <v>13.401319155483282</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.245990086582175</v>
+        <v>19.231318962778229</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4495,21 +4522,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4519,25 +4546,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4547,7 +4574,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4557,14 +4584,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4574,7 +4601,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4589,14 +4616,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5496,27 +5523,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5548,12 +5575,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5580,16 +5607,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5607,7 +5634,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5640,7 +5667,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5651,7 +5678,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6007,7 +6034,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6058,7 +6085,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6109,7 +6136,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6160,7 +6187,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6262,7 +6289,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6415,7 +6442,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6670,7 +6697,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6721,7 +6748,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6775,15 +6802,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6823,50 +6850,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6874,50 +6901,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6925,101 +6952,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7027,101 +7054,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7129,50 +7156,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7180,50 +7207,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7231,50 +7258,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7282,272 +7309,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.66296240447635002</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.65999555710373037</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.62615371976259515</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.57737308584191094</v>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.21326576274860384</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.21616728742523283</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.21771340304328821</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.21600615821908653</v>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.66296240447635002</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.65999555710373037</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.62615371976259515</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.57737308584191094</v>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7555,50 +7582,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.21326576274860384</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.7203750464491323E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.21616728742523283</v>
+        <f t="shared" si="37"/>
+        <v>2.0700456555345761E-2</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.21771340304328821</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.21600615821908653</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7606,50 +7633,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>3.8544925959634583E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.4179418548331399E-3</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7657,50 +7684,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.7203750464491323E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>2.6114425754091564E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.0700456555345761E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.581472981062243E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7708,221 +7735,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>3.8544925959634583E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>7.0068207296866941E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.4179418548331399E-3</v>
+        <f t="shared" si="40"/>
+        <v>8.5904027250235437E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.15613287719411659</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.20662075593900259</v>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>2.6114425754091564E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.581472981062243E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>7.0068207296866941E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.5904027250235437E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.15613287719411659</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.20662075593900259</v>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7930,522 +7957,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.44996258868911115</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>-0.79464533168577678</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-0.44996258868911115</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>-0.79464533168577678</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.38824670294808183</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.24097189873352567</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.38824670294808183</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.24097189873352567</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9005,12 +8936,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9692,27 +9619,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9904,7 +9834,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9951,7 +9881,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9979,7 +9909,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10062,7 +9992,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10084,7 +10014,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10152,7 +10082,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10474,7 +10404,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10611,7 +10541,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10942,7 +10872,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11008,7 +10938,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11043,7 +10973,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11064,7 +10994,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11085,7 +11015,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11100,7 +11030,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11131,7 +11061,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11145,7 +11075,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11166,7 +11096,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11181,7 +11111,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11203,7 +11133,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11211,11 +11141,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11243,7 +11173,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11315,7 +11245,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11345,7 +11275,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11375,7 +11305,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11433,12 +11363,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11468,7 +11398,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11498,7 +11428,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11549,7 +11479,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11580,7 +11510,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11601,28 +11531,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2114238230961236E-2</v>
+        <v>5.1993089983413024E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6661930439557251E-2</v>
+        <v>5.6530210322206051E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4099574449794611E-2</v>
+        <v>6.3950564287182932E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11652,21 +11582,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7883153441091068E-2</v>
+        <v>6.7725347717423237E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11683,27 +11613,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11722,24 +11652,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.842447587342185</v>
+        <v>24.825419220238473</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.106447692739337</v>
+        <v>29.084259990486963</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11750,18 +11680,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.376420481564555</v>
+        <v>31.351288850872368</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.376420481564555</v>
+        <v>31.351288850872368</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11780,14 +11710,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11800,31 +11730,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16817108.315476056</v>
+        <v>16804288.716327831</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.351086988293666</v>
+        <v>12.342620880329582</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.471048640006586</v>
+        <v>14.460017430636979</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.245990086582175</v>
+        <v>19.231318962778229</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11842,7 +11772,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11867,27 +11797,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16817108.315476056</v>
+        <v>16804288.716327831</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.399407642027606</v>
+        <v>11.391121282160789</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.351086988293666</v>
+        <v>12.342620880329582</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.411067814150126</v>
+        <v>13.401319155483282</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.471048640006586</v>
+        <v>14.460017430636981</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.245990086582175</v>
+        <v>19.231318962778229</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11897,21 +11827,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11924,31 +11854,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18128652.021044072</v>
+        <v>18114131.480442327</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.259682355315062</v>
+        <v>13.249061722529838</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.599626300370662</v>
+        <v>15.587131438270399</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.599626300370662</v>
+        <v>15.587131438270399</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.599626300370662</v>
+        <v>15.587131438270399</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.74695902142885</v>
+        <v>20.730341290530614</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11958,21 +11888,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11985,31 +11915,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16241054.278913338</v>
+        <v>16228874.688037144</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.329544998671334</v>
+        <v>12.320091502345313</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.975356644332164</v>
+        <v>13.96487615929999</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.505347057260394</v>
+        <v>14.494225296876841</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.035337470188624</v>
+        <v>15.023574434453689</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.996474554005513</v>
+        <v>19.980830126654421</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12018,7 +11948,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5246E0A-7EBF-45BE-B355-57BA735A769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F6ACC53-D797-4B13-9C2B-ECB53EAE0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45637</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1162120917</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,443 +3045,447 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>23767936</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>22615878</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>20790144</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>22374001</v>
       </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>15757248</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>14926379</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>13017826</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>12918146</v>
       </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>5068887</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>4888813</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>4526293</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>4832922</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>646577</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>468159</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>6871</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>24051</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <f>4126200-4644583</f>
         <v>-518383</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <f>3352219-4803030</f>
         <v>-1450811</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <f>808830+5967+54201+30822</f>
         <v>899820</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <f>793670+53694+6219+33410</f>
         <v>886993</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <f>1469761+50745</f>
         <v>1520506</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <f>1121618+123039</f>
         <v>1244657</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.7+0.7</f>
         <v>1.4</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.7+0.7</f>
         <v>1.4</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="247">
         <f>0.7+0.7</f>
         <v>1.4</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="247">
         <f>1.3+1.2</f>
         <v>2.5</v>
       </c>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7725347717423237E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>6.7214681503924525E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7725347717423237E-2</v>
-      </c>
-      <c r="E45" s="152">
+        <v>6.7214681503924525E-2</v>
+      </c>
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7725347717423237E-2</v>
-      </c>
-      <c r="F45" s="152">
+        <v>6.7214681503924525E-2</v>
+      </c>
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12093812092397008</v>
-      </c>
-      <c r="G45" s="152" t="str">
+        <v>0.1200262169712938</v>
+      </c>
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3544,7 +3556,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3572,7 +3584,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3584,7 +3596,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3603,8 +3615,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3656,7 +3668,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3672,7 +3684,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3684,7 +3696,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3697,7 +3709,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3745,14 +3757,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3776,7 +3788,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3806,19 +3818,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3834,20 +3846,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3877,10 +3889,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3892,12 +3904,12 @@
         <f>C25</f>
         <v>23767936</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>23767936</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>23767936</v>
       </c>
@@ -3910,75 +3922,75 @@
         <f>C26</f>
         <v>15757248</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>15757248</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>15757248</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>5068887</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>5068887</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>5068887</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>646577</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>646577</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>620686</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>2.6114425754091564E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*2%</f>
         <v>475358.72000000003</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*1%</f>
         <v>237679.36000000002</v>
       </c>
@@ -3991,12 +4003,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4009,12 +4021,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>9161.3333333333339</v>
       </c>
@@ -4023,16 +4035,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>1.4</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>1.4</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>1.4</v>
       </c>
@@ -4113,7 +4125,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4165,11 +4177,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>22.1</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>22.25</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4207,7 +4219,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>25682.8722657</v>
+        <v>25857.190403249999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4217,11 +4229,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4243,11 +4255,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4255,8 +4267,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4265,10 +4277,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4276,7 +4288,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4284,13 +4296,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4299,12 +4311,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4314,7 +4326,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4325,7 +4337,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4333,13 +4345,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4349,49 +4361,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4399,79 +4411,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.637078595730568</v>
+        <v>15.755881921700313</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>1.0590265851805289</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7725347717423237E-2</v>
+        <v>6.7214681503924525E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4488,10 +4500,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4499,22 +4511,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.391121282160789</v>
-      </c>
-      <c r="D29" s="129">
+        <v>11.357494605895921</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>22.11601680719496</v>
+        <v>22.048201906554731</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.401319155483282</v>
+        <v>13.361758359877554</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.231318962778229</v>
+        <v>19.172349483960637</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4522,23 +4534,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4546,9 +4558,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4556,17 +4568,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4574,26 +4586,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4601,9 +4613,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4616,16 +4628,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5577,10 +5589,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5606,16 +5618,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5629,11 +5641,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5658,7 +5670,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5666,7 +5678,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5730,47 +5742,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>23767936</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>22615878</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>20790144</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>22374001</v>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5832,47 +5844,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>15757248</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>14926379</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>13017826</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>12918146</v>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5883,47 +5895,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>8010688</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>7689499</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>7772318</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>9455855</v>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5934,47 +5946,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>5068887</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>4888813</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>4526293</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>4832922</v>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5985,47 +5997,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6034,49 +6046,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>32068</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6084,50 +6096,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.12241921361620363</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.15613287719411659</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.20662075593900259</v>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6135,50 +6147,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2768618</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>3246025</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>4622933</v>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6186,50 +6198,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>5.9243155490091633E-2</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.14707434477553316</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>-0.2978429494868301</v>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6240,47 +6252,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-518383</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-1450811</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6289,49 +6301,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>646577</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>468159</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6342,47 +6354,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.7858567104859249E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>3.9219923276911914E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6393,47 +6405,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>899820</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>886993</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6442,49 +6454,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.397299285895082E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>5.5034653087534344E-2</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6495,47 +6507,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1520506</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1244657</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6546,47 +6558,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1665376.6666666665</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1942795</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>3246025</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>4622933</v>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6597,47 +6609,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.2551155472650213E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>6.4428020437676578E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>0.11709965789558745</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>0.15496556695425195</v>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6648,7 +6660,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1249032.5</v>
       </c>
@@ -6696,50 +6708,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.14279341532860304</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.40148489306151369</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>-0.2978429494868301</v>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6856,43 +6868,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6907,43 +6919,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6952,49 +6964,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7009,43 +7021,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7060,43 +7072,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7162,43 +7174,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7213,43 +7225,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7264,43 +7276,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7362,47 +7374,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7411,7 +7423,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7431,47 +7443,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.65999555710373037</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.62615371976259515</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.57737308584191094</v>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7480,49 +7492,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.21616728742523283</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.21771340304328821</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.21600615821908653</v>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7533,47 +7545,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7584,47 +7596,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>2.0700456555345761E-2</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7635,47 +7647,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.4179418548331399E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7684,49 +7696,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.6114425754091564E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.581472981062243E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7737,47 +7749,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>7.0068207296866941E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>8.5904027250235437E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.15613287719411659</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.20662075593900259</v>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7786,9 +7798,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7803,50 +7817,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7855,49 +7869,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7906,49 +7920,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7957,49 +7971,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.44996258868911115</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>-0.79464533168577678</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8008,7 +8022,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8025,49 +8039,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8077,47 +8091,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8127,47 +8141,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.38824670294808183</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.24097189873352567</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8177,47 +8191,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8225,149 +8239,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9663,8 +9677,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9700,8 +9714,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9713,8 +9727,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9724,8 +9738,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9812,11 +9826,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9859,7 +9873,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9887,7 +9901,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9915,7 +9929,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9943,7 +9957,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9956,7 +9970,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9971,7 +9985,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9998,7 +10012,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10020,7 +10034,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10042,7 +10056,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10063,7 +10077,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10071,7 +10085,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10088,7 +10102,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10096,7 +10110,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10115,7 +10129,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10136,7 +10150,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10301,7 +10315,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10330,7 +10344,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10356,7 +10370,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10383,7 +10397,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10410,7 +10424,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10426,7 +10440,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10440,7 +10454,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10467,7 +10481,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10475,7 +10489,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10493,7 +10507,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10501,7 +10515,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10520,7 +10534,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10528,7 +10542,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10547,7 +10561,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10568,7 +10582,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10589,7 +10603,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10610,7 +10624,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10631,7 +10645,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10777,8 +10791,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10804,8 +10818,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10875,7 +10889,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10975,7 +10989,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10983,7 +10997,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11014,11 +11028,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11095,12 +11109,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11179,17 +11193,17 @@
         <f>Data!C6</f>
         <v>23767936</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>23767936</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>23767936</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11200,23 +11214,23 @@
         <f>Data!C8</f>
         <v>15757248</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>15757248</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>15757248</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.66296240447635002</v>
       </c>
@@ -11226,48 +11240,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>8010688</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>8010688</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>8010688</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>5068887</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>5068887</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>5068887</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.21326576274860384</v>
       </c>
@@ -11281,54 +11295,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>3.8544925959634583E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.12338638351544982</v>
       </c>
@@ -11342,55 +11356,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>646577</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>646577</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>646577</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.7203750464491323E-2</v>
       </c>
@@ -11398,29 +11412,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>620686</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>2.6114425754091564E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>475358.72000000003</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>237679.36000000002</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0.01</v>
       </c>
@@ -11430,27 +11444,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1665376.6666666665</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>7.0068207296866941E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1810703.9466666665</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>7.6182633050958501E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>2048383.3066666664</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>8.6182633050958496E-2</v>
       </c>
@@ -11460,49 +11474,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>1249032.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>5.2551155472650213E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1358027.96</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>5.7136974788218886E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1536287.4799999997</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>6.4636974788218879E-2</v>
       </c>
@@ -11512,69 +11526,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0747870395658665</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1685771593421892</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.3219687018162498</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1993089983413024E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>5.1601048963546899E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6530210322206051E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>5.6103958269961514E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3950564287182932E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>6.346836089338273E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>1.4</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.3025836267671176</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>1.4</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>1.1980381345020319</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>1.4</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>1.0590265851805289</v>
       </c>
@@ -11582,23 +11596,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7725347717423237E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>6.7214681503924525E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7725347717423237E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.7214681503924525E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7725347717423237E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.7214681503924525E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11620,7 +11634,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11643,27 +11657,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.825419220238473</v>
+        <v>24.755459239690762</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.084259990486963</v>
+        <v>28.99507818986508</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11671,27 +11685,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.351288850872368</v>
+        <v>31.251238511145061</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.351288850872368</v>
+        <v>31.251238511145061</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11705,25 +11719,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11734,21 +11748,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16804288.716327831</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>16752761.301623717</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.342620880329582</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>12.307838405599338</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.460017430636979</v>
-      </c>
-      <c r="I97" s="123">
+        <v>14.41567831415577</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.231318962778229</v>
+        <v>19.172349483960637</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11760,14 +11774,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11778,17 +11792,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11797,27 +11811,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16804288.716327831</v>
+        <v>16752761.301623717</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.391121282160789</v>
+        <v>11.357494605895921</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.342620880329582</v>
+        <v>12.307838405599338</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.401319155483282</v>
+        <v>13.361758359877554</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.460017430636981</v>
+        <v>14.41567831415577</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.231318962778229</v>
+        <v>19.172349483960637</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11829,25 +11843,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11858,27 +11872,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18114131.480442327</v>
+        <v>18056324.446827088</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.249061722529838</v>
-      </c>
-      <c r="E103" s="123">
+        <v>13.206780426449397</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.587131438270399</v>
+        <v>15.537388736999292</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.587131438270399</v>
-      </c>
-      <c r="H103" s="123">
+        <v>15.537388736999292</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.587131438270399</v>
+        <v>15.537388736999292</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.730341290530614</v>
+        <v>20.664185232365149</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11890,25 +11904,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11919,27 +11933,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16228874.688037144</v>
+        <v>16179760.450515006</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.320091502345313</v>
-      </c>
-      <c r="E106" s="123">
+        <v>12.282137516172659</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>13.96487615929999</v>
+        <v>13.922613571299316</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.494225296876841</v>
-      </c>
-      <c r="H106" s="123">
+        <v>14.449573548438423</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>15.023574434453689</v>
-      </c>
-      <c r="I106" s="123">
+        <v>14.97653352557753</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>19.980830126654421</v>
+        <v>19.918267358162893</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11950,14 +11964,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F6ACC53-D797-4B13-9C2B-ECB53EAE0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B7B419-F04C-428D-A6BC-49AA6BCBDF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3287,9 +3287,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3353,9 +3351,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3371,9 +3367,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3435,19 +3429,19 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
       <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
       <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1200262169712938</v>
+        <v>0.12083710318776816</v>
       </c>
       <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4178,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>22.25</v>
+        <v>22.1</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4219,7 +4213,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>25857.190403249999</v>
+        <v>25682.8722657</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4268,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4451,7 +4445,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.755881921700313</v>
+        <v>15.650150924004587</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4483,7 +4477,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4513,20 +4507,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.357494605895921</v>
+        <v>11.378894075792049</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>22.048201906554731</v>
+        <v>22.091997030018142</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.361758359877554</v>
+        <v>13.386934206814177</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.172349483960637</v>
+        <v>19.210432200015777</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11549,17 +11543,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1601048963546899E-2</v>
+        <v>5.1949660961958591E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6103958269961514E-2</v>
+        <v>5.6482991514520443E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.346836089338273E-2</v>
+        <v>6.3897147372948035E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11600,17 +11594,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7214681503924525E-2</v>
+        <v>6.7668777785150167E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11670,14 +11664,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.755459239690762</v>
+        <v>24.799140531475505</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.99507818986508</v>
+        <v>29.052672139455083</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11698,14 +11692,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.251238511145061</v>
+        <v>31.316804195122661</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.251238511145061</v>
+        <v>31.316804195122661</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11748,21 +11742,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16752761.301623717</v>
+        <v>16786037.904072624</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.307838405599338</v>
+        <v>12.329555727642489</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.41567831415577</v>
+        <v>14.444312685985862</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.172349483960637</v>
+        <v>19.210432200015777</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11811,27 +11805,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16752761.301623717</v>
+        <v>16786037.904072624</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.357494605895921</v>
+        <v>11.378894075792049</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.307838405599338</v>
+        <v>12.329555727642489</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>13.361758359877554</v>
+        <v>13.386934206814177</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.41567831415577</v>
+        <v>14.444312685985864</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.172349483960637</v>
+        <v>19.210432200015777</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11872,27 +11866,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18056324.446827088</v>
+        <v>18094206.953853343</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.206780426449397</v>
+        <v>13.234488499250842</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.537388736999292</v>
+        <v>15.569986469706873</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.537388736999292</v>
+        <v>15.569986469706873</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.537388736999292</v>
+        <v>15.569986469706873</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.664185232365149</v>
+        <v>20.707539080185185</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11933,27 +11927,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16179760.450515006</v>
+        <v>16211320.781131918</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.282137516172659</v>
+        <v>12.306691287521446</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>13.922613571299316</v>
+        <v>13.949771098674681</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.449573548438423</v>
+        <v>14.478460338260525</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>14.97653352557753</v>
+        <v>15.007149577846368</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>19.918267358162893</v>
+        <v>19.958985640100479</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B7B419-F04C-428D-A6BC-49AA6BCBDF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BF65D7-72AD-4AA5-BDA1-F2F939F0894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1162120917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1162120917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,835 +3036,836 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>23767936</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>22615878</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>20790144</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>22374001</v>
       </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>15757248</v>
+      </c>
+      <c r="D26" s="148">
+        <v>14926379</v>
+      </c>
+      <c r="E26" s="148">
+        <v>13017826</v>
+      </c>
+      <c r="F26" s="148">
+        <v>12918146</v>
+      </c>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>5068887</v>
+      </c>
+      <c r="D27" s="148">
+        <v>4888813</v>
+      </c>
+      <c r="E27" s="148">
+        <v>4526293</v>
+      </c>
+      <c r="F27" s="148">
+        <v>4832922</v>
+      </c>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>15757248</v>
-      </c>
-      <c r="D26" s="149">
-        <v>14926379</v>
-      </c>
-      <c r="E26" s="149">
-        <v>13017826</v>
-      </c>
-      <c r="F26" s="149">
-        <v>12918146</v>
-      </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
-        <v>5068887</v>
-      </c>
-      <c r="D27" s="149">
-        <v>4888813</v>
-      </c>
-      <c r="E27" s="149">
-        <v>4526293</v>
-      </c>
-      <c r="F27" s="149">
-        <v>4832922</v>
-      </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
         <v>646577</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>468159</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
         <v>6871</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="148">
         <v>24051</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
         <f>4126200-4644583</f>
         <v>-518383</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <f>3352219-4803030</f>
         <v>-1450811</v>
       </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
         <f>808830+5967+54201+30822</f>
         <v>899820</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <f>793670+53694+6219+33410</f>
         <v>886993</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148">
         <f>1469761+50745</f>
         <v>1520506</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <f>1121618+123039</f>
         <v>1244657</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.7+0.7</f>
         <v>1.4</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.7+0.7</f>
         <v>1.4</v>
       </c>
-      <c r="E44" s="247">
+      <c r="E44" s="245">
         <f>0.7+0.7</f>
         <v>1.4</v>
       </c>
-      <c r="F44" s="247">
+      <c r="F44" s="245">
         <f>1.3+1.2</f>
         <v>2.5</v>
       </c>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7668777785150167E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>6.8116324547120979E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7668777785150167E-2</v>
-      </c>
-      <c r="E45" s="151">
+        <v>6.8116324547120979E-2</v>
+      </c>
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7668777785150167E-2</v>
-      </c>
-      <c r="F45" s="151">
+        <v>6.8116324547120979E-2</v>
+      </c>
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12083710318776816</v>
-      </c>
-      <c r="G45" s="151" t="str">
+        <v>0.12163629383414462</v>
+      </c>
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3879,166 +3874,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>23767936</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>23767936</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>23767936</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>15757248</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>15757248</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>15757248</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>5068887</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>5068887</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>5068887</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>646577</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>646577</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>620686</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>2.6114425754091564E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*2%</f>
         <v>475358.72000000003</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*1%</f>
         <v>237679.36000000002</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>9161.3333333333339</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>1.4</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>1.4</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>1.4</v>
       </c>
@@ -4051,32 +4046,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4135,13 +4130,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4152,82 +4147,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1044.HK : 恒安國際</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>22.1</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>21.95</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1162120917</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>25682.8722657</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>25508.554128149997</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4238,31 +4233,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4271,280 +4266,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.650150924004587</v>
+        <v>15.547324260690603</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>1.0590265851805289</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.01</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7668777785150167E-2</v>
+        <v>6.8116324547120979E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.378894075792049</v>
-      </c>
-      <c r="D29" s="128">
+        <v>11.397876717668387</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>22.091997030018142</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>22.131073639923482</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.386934206814177</v>
-      </c>
-      <c r="G29" s="286">
+        <v>13.409266726668692</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.210432200015777</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>19.24441186080303</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4552,9 +4547,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4562,17 +4557,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4580,26 +4575,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4607,9 +4602,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4622,16 +4617,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5583,10 +5578,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5612,59 +5607,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5672,19 +5667,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5733,928 +5728,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>23767936</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>22615878</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>20790144</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>22374001</v>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>5.0940228807389243E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>8.7817284959642361E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>-7.0790065665948587E-2</v>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>15757248</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>14926379</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>13017826</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>12918146</v>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>8010688</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>7689499</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>7772318</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>9455855</v>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>5068887</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>4888813</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>4526293</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>4832922</v>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>32068</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.12241921361620363</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.15613287719411659</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.20662075593900259</v>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2768618</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>3246025</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>4622933</v>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>5.9243155490091633E-2</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.14707434477553316</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>-0.2978429494868301</v>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-518383</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-1450811</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>646577</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>468159</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.7858567104859249E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>3.9219923276911914E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>899820</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>886993</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.397299285895082E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>5.5034653087534344E-2</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>1520506</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1244657</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1665376.6666666665</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1942795</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>3246025</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>4622933</v>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.2551155472650213E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>6.4428020437676578E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>0.11709965789558745</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>0.15496556695425195</v>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1249032.5</v>
       </c>
@@ -6698,63 +6693,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.14279341532860304</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.40148489306151369</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>-0.2978429494868301</v>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6800,11 +6795,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6851,266 +6846,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7157,165 +7152,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7361,63 +7356,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7430,372 +7425,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.65999555710373037</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.62615371976259515</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.57737308584191094</v>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.21616728742523283</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.21771340304328821</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.21600615821908653</v>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>2.0700456555345761E-2</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.4179418548331399E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.6114425754091564E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.581472981062243E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>7.0068207296866941E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>8.5904027250235437E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.15613287719411659</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.20662075593900259</v>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7807,216 +7802,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.44996258868911115</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>-0.79464533168577678</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8032,350 +8027,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.38824670294808183</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.24097189873352567</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9654,7 +9649,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9672,7 +9667,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9690,25 +9685,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9716,12 +9711,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9729,28 +9724,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9763,7 +9758,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9772,16 +9767,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9789,7 +9784,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9799,287 +9794,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10090,21 +10085,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10117,45 +10112,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10163,17 +10158,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10183,19 +10178,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10205,17 +10200,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10224,7 +10219,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10234,17 +10229,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10257,7 +10252,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10267,17 +10262,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10304,12 +10299,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10319,171 +10314,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10491,25 +10486,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10517,26 +10512,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10544,113 +10539,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10658,17 +10653,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10678,16 +10673,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10697,16 +10692,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10716,14 +10711,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10736,7 +10731,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10746,14 +10741,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10766,13 +10761,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10780,12 +10775,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10796,63 +10791,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10860,45 +10855,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10906,61 +10901,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10974,35 +10969,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11016,29 +11011,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11052,9 +11047,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11062,28 +11057,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11097,29 +11092,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11133,29 +11128,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11165,66 +11160,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>23767936</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>23767936</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>23767936</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>15757248</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>15757248</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.66296240447635002</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>15757248</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.66296240447635002</v>
       </c>
@@ -11232,50 +11227,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>8010688</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>8010688</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>8010688</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>5068887</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>5068887</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.21326576274860384</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>5068887</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.21326576274860384</v>
       </c>
@@ -11283,60 +11278,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>3.8544925959634583E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>9161.3333333333339</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>3.8544925959634583E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.12338638351544982</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>2932639.6666666665</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.12338638351544982</v>
       </c>
@@ -11344,61 +11339,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>646577</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>646577</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>646577</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.7203750464491323E-2</v>
       </c>
@@ -11406,59 +11401,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>620686</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>2.6114425754091564E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>475358.72000000003</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0.02</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>237679.36000000002</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0.01</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1665376.6666666665</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>7.0068207296866941E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1810703.9466666665</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>7.6182633050958501E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>2048383.3066666664</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>8.6182633050958496E-2</v>
       </c>
@@ -11466,184 +11461,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>1249032.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>5.2551155472650213E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1358027.96</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>5.7136974788218886E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1536287.4799999997</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>6.4636974788218879E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0747870395658665</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1685771593421892</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.3219687018162498</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1949660961958591E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>5.2293244861505668E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6482991514520443E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>5.6856557888646631E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3897147372948035E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>6.4319749381465632E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>1.4</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.3025836267671176</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>1.4</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>1.1980381345020319</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>1.4</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>1.0590265851805289</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7668777785150167E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>6.8116324547120979E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7668777785150167E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.8116324547120979E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7668777785150167E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.8116324547120979E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11651,55 +11646,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.799140531475505</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>24.837589138112435</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.052672139455083</v>
+        <v>29.104060881466893</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.316804195122661</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>31.375641298705496</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.316804195122661</v>
+        <v>31.375641298705496</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11709,123 +11704,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16786037.904072624</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>16815729.264891766</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.329555727642489</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>12.348671480367006</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.444312685985862</v>
-      </c>
-      <c r="I97" s="122">
+        <v>14.469861972970378</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.210432200015777</v>
+        <v>19.24441186080303</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>16786037.904072624</v>
-      </c>
-      <c r="D100" s="109">
+        <v>16815729.264891766</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.378894075792049</v>
-      </c>
-      <c r="E100" s="109">
+        <v>11.397876717668387</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.329555727642489</v>
-      </c>
-      <c r="F100" s="109">
+        <v>12.348671480367006</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>13.386934206814177</v>
-      </c>
-      <c r="H100" s="109">
+        <v>13.409266726668692</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.444312685985864</v>
-      </c>
-      <c r="I100" s="109">
+        <v>14.469861972970378</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.210432200015777</v>
+        <v>19.24441186080303</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11835,58 +11830,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18094206.953853343</v>
-      </c>
-      <c r="D103" s="109">
+        <v>18128201.825174186</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.234488499250842</v>
-      </c>
-      <c r="E103" s="122">
+        <v>13.259353072463506</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.569986469706873</v>
-      </c>
-      <c r="F103" s="109">
+        <v>15.599238908780595</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>15.569986469706873</v>
-      </c>
-      <c r="H103" s="122">
+        <v>15.599238908780595</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.569986469706873</v>
-      </c>
-      <c r="I103" s="109">
+        <v>15.599238908780595</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.707539080185185</v>
+        <v>20.746443804122382</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11896,58 +11891,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16211320.781131918</v>
-      </c>
-      <c r="D106" s="109">
+        <v>16239425.624835018</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>12.306691287521446</v>
-      </c>
-      <c r="E106" s="122">
+        <v>12.328614895065947</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>13.949771098674681</v>
-      </c>
-      <c r="F106" s="109">
+        <v>13.973955194573801</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>14.478460338260525</v>
-      </c>
-      <c r="H106" s="122">
+        <v>14.504252817724645</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>15.007149577846368</v>
-      </c>
-      <c r="I106" s="122">
+        <v>15.034550440875487</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>19.958985640100479</v>
+        <v>19.995427832462706</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11956,15 +11951,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BF65D7-72AD-4AA5-BDA1-F2F939F0894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7648F040-AFDE-4D7F-897C-527B136B3180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3423,19 +3440,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12163629383414462</v>
+        <v>0.12101689614045828</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3856,11 +3873,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3874,10 +3891,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4099,8 +4116,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4113,8 +4133,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4157,60 +4177,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>21.95</v>
+        <v>22.05</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1162120917</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>25508.554128149997</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>25624.766219850004</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4233,11 +4253,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4257,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4378,7 +4398,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4390,20 +4410,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.12338638351544982</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4412,12 +4432,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.12338638351544982</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4428,10 +4448,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.7203750464491323E-2</v>
       </c>
@@ -4440,7 +4460,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.547324260690603</v>
+        <v>15.626899734010365</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4472,7 +4492,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4491,10 +4511,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4502,22 +4522,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.397876717668387</v>
+        <v>11.374866409548938</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>22.131073639923482</v>
+        <v>22.084676385115152</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.409266726668692</v>
-      </c>
-      <c r="G29" s="285">
+        <v>13.382195775939927</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.24441186080303</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>19.204066421839265</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5548,7 +5568,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7789,7 +7809,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9716,7 +9736,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10763,7 +10783,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10780,7 +10800,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10889,11 +10909,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10904,11 +10924,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10920,11 +10940,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11138,19 +11158,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11160,18 +11180,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11538,17 +11558,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2293244861505668E-2</v>
+        <v>5.2026956616101239E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6856557888646631E-2</v>
+        <v>5.6567032289690185E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4319749381465632E-2</v>
+        <v>6.3992219635453429E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11589,17 +11609,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8116324547120979E-2</v>
+        <v>6.7769461838656633E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11630,15 +11650,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11659,14 +11679,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.837589138112435</v>
+        <v>24.789706387550094</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.104060881466893</v>
+        <v>29.043044929387708</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11687,14 +11707,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.375641298705496</v>
+        <v>31.307199993150697</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.375641298705496</v>
+        <v>31.307199993150697</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11737,21 +11757,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16815729.264891766</v>
+        <v>16780475.499612004</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.348671480367006</v>
+        <v>12.324865290765318</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.469861972970378</v>
+        <v>14.439526261114533</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.24441186080303</v>
+        <v>19.204066421839265</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11800,27 +11820,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>16815729.264891766</v>
+        <v>16780475.499612004</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.397876717668387</v>
+        <v>11.374866409548938</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.348671480367006</v>
+        <v>12.324865290765318</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>13.409266726668692</v>
+        <v>13.382195775939927</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.469861972970378</v>
+        <v>14.439526261114533</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.24441186080303</v>
+        <v>19.204066421839265</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11861,27 +11881,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18128201.825174186</v>
+        <v>18088657.842998207</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.259353072463506</v>
+        <v>13.230429761336511</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.599238908780595</v>
+        <v>15.565211483925307</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>15.599238908780595</v>
+        <v>15.565211483925307</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.599238908780595</v>
+        <v>15.565211483925307</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.746443804122382</v>
+        <v>20.701188515599181</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11922,27 +11942,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16239425.624835018</v>
+        <v>16205820.798301937</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>12.328614895065947</v>
+        <v>12.302648085442724</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>13.973955194573801</v>
+        <v>13.945038387345313</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>14.504252817724645</v>
+        <v>14.473703629932617</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>15.034550440875487</v>
+        <v>15.00236887251992</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>19.995427832462706</v>
+        <v>19.952627468719221</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7648F040-AFDE-4D7F-897C-527B136B3180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98F1139-F95A-4B6E-B1A6-61927ADD85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3440,19 +3440,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12101689614045828</v>
+        <v>0.12221001886081988</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>22.05</v>
+        <v>21.8</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>25624.766219850004</v>
+        <v>25334.235990600002</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4277,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.626899734010365</v>
+        <v>15.474336062919749</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4522,20 +4522,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.374866409548938</v>
+        <v>11.38877868725309</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>22.084676385115152</v>
+        <v>22.115000966532204</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.382195775939927</v>
+        <v>13.398563161474224</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.204066421839265</v>
+        <v>19.230435623071482</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9687,7 +9687,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11558,17 +11558,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2026956616101239E-2</v>
+        <v>5.2539897750683719E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6567032289690185E-2</v>
+        <v>5.7124734673412905E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3992219635453429E-2</v>
+        <v>6.4623127992950974E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11609,17 +11609,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7769461838656633E-2</v>
+        <v>6.8437610562059131E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11679,14 +11679,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.789706387550094</v>
+        <v>24.815668551980391</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.043044929387708</v>
+        <v>29.0829240820274</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11707,14 +11707,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.307199993150697</v>
+        <v>31.355323526321428</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.307199993150697</v>
+        <v>31.355323526321428</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11757,21 +11757,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16780475.499612004</v>
+        <v>16803516.855828013</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.324865290765318</v>
+        <v>12.337773074918051</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.439526261114533</v>
+        <v>14.459353248030396</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.204066421839265</v>
+        <v>19.230435623071482</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11798,7 +11798,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11820,27 +11820,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>16780475.499612004</v>
+        <v>16803516.855828013</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.374866409548938</v>
+        <v>11.38877868725309</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.324865290765318</v>
+        <v>12.337773074918051</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>13.382195775939927</v>
+        <v>13.398563161474224</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.439526261114533</v>
+        <v>14.459353248030396</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.204066421839265</v>
+        <v>19.230435623071482</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11881,27 +11881,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18088657.842998207</v>
+        <v>18116462.633139513</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.230429761336511</v>
+        <v>13.250766777282427</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.565211483925307</v>
+        <v>15.58913738503815</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>15.565211483925307</v>
+        <v>15.58913738503815</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.565211483925307</v>
+        <v>15.58913738503815</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.701188515599181</v>
+        <v>20.733009129784477</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11942,27 +11942,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16205820.798301937</v>
+        <v>16227223.396350596</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>12.302648085442724</v>
+        <v>12.319772732267758</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>13.945038387345313</v>
+        <v>13.9634552299781</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>14.473703629932617</v>
+        <v>14.493850273256186</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>15.00236887251992</v>
+        <v>15.024245316534273</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>19.952627468719221</v>
+        <v>19.981722376427982</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFDE1F4-E76E-4FD7-A32F-C411B4C7B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B44760-DA4B-446B-A18D-41A177380603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3653,19 +3653,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11768838648950808</v>
+        <v>0.11820403734842937</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>26263.9327242</v>
+        <v>26147.720632500001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4490,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4621,7 +4621,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.068865913772051</v>
+        <v>15.99876742393872</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4740,20 +4740,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.268357900643288</v>
+        <v>11.262182321032183</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>22.829905908247991</v>
+        <v>21.858156845168772</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.609832824286222</v>
+        <v>13.249626260037862</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.85209209412869</v>
+        <v>19.007092908842413</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11790,17 +11790,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0595981002536768E-2</v>
+        <v>5.081766694658061E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5011184148590013E-2</v>
+        <v>5.5252215274962248E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2232145402553625E-2</v>
+        <v>6.2504815121177074E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11841,17 +11841,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5905496434124522E-2</v>
+        <v>6.6194260915120429E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11904,21 +11904,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.036607725987139</v>
+        <v>24.554307675613074</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.444601267285464</v>
+        <v>28.745154344018705</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11939,14 +11939,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>27.227031720722906</v>
+        <v>30.974098520240684</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>27.227031720722906</v>
+        <v>30.974098520240684</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11989,21 +11989,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19442559.945713587</v>
+        <v>16608360.431047289</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.48942728757271</v>
+        <v>12.207830527671049</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.730238360999735</v>
+        <v>14.291421992404675</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.85209209412869</v>
+        <v>19.007092908842413</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12053,23 +12053,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.268357900643288</v>
+        <v>11.262182321032183</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.48942728757271</v>
+        <v>12.207830527671049</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>15.609832824286222</v>
+        <v>13.249626260037862</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>16.730238360999735</v>
+        <v>14.291421992404675</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.85209209412869</v>
+        <v>19.007092908842413</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12108,23 +12108,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>15.216883019718569</v>
+        <v>13.089661003935728</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.902215317315964</v>
+        <v>15.399601181100856</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>17.902215317315964</v>
+        <v>15.399601181100856</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.902215317315964</v>
+        <v>15.399601181100856</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>21.242759337891503</v>
+        <v>20.480932587664309</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12163,23 +12163,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>14.242620460180929</v>
+        <v>12.175921662483955</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>16.195821302444337</v>
+        <v>13.803715854385953</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>16.756024070801093</v>
+        <v>14.32461372056936</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>17.316226839157849</v>
+        <v>14.845511586752766</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>20.547425716010096</v>
+        <v>19.744012748253361</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B44760-DA4B-446B-A18D-41A177380603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADFF893-EEF2-4141-9BFE-2D858679B9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4305,7 +4306,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4328,6 +4329,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4346,8 +4350,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4383,18 +4387,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4410,7 +4417,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
@@ -4439,11 +4446,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>26147.720632500001</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4466,11 +4473,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4538,10 +4545,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4588,7 +4595,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4729,10 +4736,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4740,22 +4747,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.262182321032183</v>
+        <v>12.332555020964991</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>21.858156845168772</v>
+        <v>24.579278875779949</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.249626260037862</v>
-      </c>
-      <c r="G29" s="312">
+        <v>14.508888259958812</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>19.007092908842413</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>21.373285978939087</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5737,15 +5744,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5773,7 +5781,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11900,7 +11908,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11911,14 +11919,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>24.554307675613074</v>
+        <v>26.887981545609353</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.745154344018705</v>
+        <v>31.47713182299568</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11939,14 +11947,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>30.974098520240684</v>
+        <v>33.917917801089992</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>30.974098520240684</v>
+        <v>33.917917801089992</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11989,21 +11997,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16608360.431047289</v>
+        <v>18186840.967882354</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.207830527671049</v>
+        <v>13.368078883606724</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.291421992404675</v>
+        <v>15.649697636310901</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>19.007092908842413</v>
+        <v>21.373285978939087</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12053,23 +12061,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.262182321032183</v>
+        <v>12.332555020964991</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.207830527671049</v>
+        <v>13.368078883606724</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>13.249626260037862</v>
+        <v>14.508888259958812</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>14.291421992404675</v>
+        <v>15.649697636310901</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.007092908842413</v>
+        <v>21.373285978939087</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12108,23 +12116,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.089661003935728</v>
+        <v>14.333719694392421</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.399601181100856</v>
+        <v>16.863199640461673</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>15.399601181100856</v>
+        <v>16.863199640461673</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.399601181100856</v>
+        <v>16.863199640461673</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.480932587664309</v>
+        <v>23.03060396510589</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12163,23 +12171,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>12.175921662483955</v>
+        <v>13.333137357678705</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>13.803715854385953</v>
+        <v>15.115639262034199</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>14.32461372056936</v>
+        <v>15.686043950210243</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>14.845511586752766</v>
+        <v>16.256448638386289</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>19.744012748253361</v>
+        <v>22.201944972022488</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADFF893-EEF2-4141-9BFE-2D858679B9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8849526D-7091-4120-B5E0-60D62A4DDDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4387,21 +4387,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4417,40 +4417,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1162120917</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>26147.720632500001</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4473,11 +4473,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4628,7 +4628,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4736,10 +4736,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.332555020964991</v>
+        <v>13.390379900306478</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>24.579278875779949</v>
+        <v>24.995567499853014</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.508888259958812</v>
-      </c>
-      <c r="G29" s="313">
+        <v>15.753388118007621</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>21.373285978939087</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>21.735276086828708</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5745,15 +5745,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11126,7 +11126,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11137,11 +11137,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11153,11 +11153,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11912,21 +11912,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>26.887981545609353</v>
+        <v>25.480146979462418</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.47713182299568</v>
+        <v>29.625401574679696</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11947,14 +11947,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>33.917917801089992</v>
+        <v>31.812136910189388</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>33.917917801089992</v>
+        <v>31.812136910189388</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11997,21 +11997,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18186840.967882354</v>
+        <v>19684491.604566891</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>13.368078883606724</v>
+        <v>14.568356733695163</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>15.649697636310901</v>
+        <v>16.938419502320077</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.373285978939087</v>
+        <v>21.735276086828708</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12061,23 +12061,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.332555020964991</v>
+        <v>13.390379900306478</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>13.368078883606724</v>
+        <v>14.568356733695163</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>14.508888259958812</v>
+        <v>15.753388118007621</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>15.649697636310901</v>
+        <v>16.938419502320077</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>21.373285978939087</v>
+        <v>21.735276086828708</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12116,23 +12116,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.333719694392421</v>
+        <v>15.460388648503107</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>16.863199640461673</v>
+        <v>18.188692527650716</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>16.863199640461673</v>
+        <v>18.188692527650716</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>16.863199640461673</v>
+        <v>18.188692527650716</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.03060396510589</v>
+        <v>23.339618769789997</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12171,23 +12171,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>13.333137357678705</v>
+        <v>14.425384274404792</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>15.115639262034199</v>
+        <v>16.378524630672938</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.686043950210243</v>
+        <v>16.971040322829168</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>16.256448638386289</v>
+        <v>17.563556014985394</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>22.201944972022488</v>
+        <v>22.537447428309353</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FB9A88-4B02-4182-9B21-2D37E2D53098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00EF253F-197B-4582-8395-F2E45BF5D23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3677,19 +3677,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1182003374452944</v>
+        <v>0.12206509937204715</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4415,27 +4415,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>22.5</v>
+        <v>21.8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4445,7 +4445,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
@@ -4474,11 +4474,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>26147.720632500001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>25334.235990600002</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4501,11 +4501,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4525,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.999268216838527</v>
+        <v>15.492707676778844</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4764,10 +4764,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4775,22 +4775,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.501449385678422</v>
+        <v>13.608044965344838</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>25.24959379626587</v>
+        <v>25.458878878753126</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.884058100798143</v>
-      </c>
-      <c r="G29" s="313">
+        <v>16.009464665111576</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>21.956168518492063</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>22.138155546741849</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5773,15 +5773,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11928,17 +11928,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0816076303405761E-2</v>
+        <v>5.2477594715358351E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5250485826044138E-2</v>
+        <v>5.7056994831603564E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2502858658719393E-2</v>
+        <v>6.4546496381574683E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11979,17 +11979,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6192188969364865E-2</v>
+        <v>6.8356455648346401E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12049,14 +12049,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.691508914010129</v>
+        <v>25.882591300763526</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>29.871124873308016</v>
+        <v>30.118716216105057</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12077,14 +12077,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>32.075984666356952</v>
+        <v>32.35560267997284</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>32.075984666356952</v>
+        <v>32.35560267997284</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12127,21 +12127,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19847761.567227237</v>
+        <v>20012272.745121859</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.68920360576764</v>
+        <v>14.798455580569557</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.078912595828648</v>
+        <v>17.220473749653593</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.956168518492063</v>
+        <v>22.138155546741849</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12191,23 +12191,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.501449385678422</v>
+        <v>13.608044965344838</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.68920360576764</v>
+        <v>14.798455580569557</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>15.884058100798143</v>
+        <v>16.009464665111576</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>17.078912595828648</v>
+        <v>17.220473749653593</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>21.956168518492063</v>
+        <v>22.138155546741849</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12246,23 +12246,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>15.588616087794666</v>
+        <v>15.724507718584153</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.33954833858196</v>
+        <v>18.499420845393121</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>18.33954833858196</v>
+        <v>18.499420845393121</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.33954833858196</v>
+        <v>18.499420845393121</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.576806287613643</v>
+        <v>23.782333875000965</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12301,23 +12301,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>14.545032736736545</v>
+        <v>14.666276341964496</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>16.5143759721748</v>
+        <v>16.648938212981339</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>17.111803219690053</v>
+        <v>17.254442755252349</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>17.709230467205302</v>
+        <v>17.859947297523355</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>22.766487403052853</v>
+        <v>22.960244710871407</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1044.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1044.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00EF253F-197B-4582-8395-F2E45BF5D23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{115E8E10-CF0F-4AD7-BA0B-A8455F86768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3677,19 +3677,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.12206509937204715</v>
+        <v>0.13268070916334787</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4415,27 +4415,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1044.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4445,40 +4445,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>恒安國際</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1162120917</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45637</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>25334.235990600002</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>23242.41834</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4501,11 +4501,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4525,7 +4525,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.492707676778844</v>
+        <v>14.253156423665665</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4764,10 +4764,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4775,22 +4775,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.608044965344838</v>
+        <v>13.843934260904083</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>25.458878878753126</v>
+        <v>25.927772229926834</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.009464665111576</v>
-      </c>
-      <c r="G29" s="314">
+        <v>16.286981483416568</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.138155546741849</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>22.545888895588554</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5773,15 +5773,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11256,7 +11256,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11267,11 +11267,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11283,11 +11283,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11928,17 +11928,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2477594715358351E-2</v>
+        <v>5.7041402643669761E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7056994831603564E-2</v>
+        <v>6.2019058485444888E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4546496381574683E-2</v>
+        <v>7.015989793949215E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11979,17 +11979,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8356455648346401E-2</v>
+        <v>7.4301197131474803E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12049,14 +12049,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>25.882591300763526</v>
+        <v>26.298631880424857</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>30.118716216105057</v>
+        <v>30.673432935834828</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12077,14 +12077,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>32.35560267997284</v>
+        <v>32.989732581581485</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>32.35560267997284</v>
+        <v>32.989732581581485</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12127,21 +12127,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>20012272.745121859</v>
+        <v>20380852.275931194</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.798455580569557</v>
+        <v>15.036328132289331</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.220473749653593</v>
+        <v>17.537634834543809</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>22.138155546741849</v>
+        <v>22.545888895588554</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12191,23 +12191,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.608044965344838</v>
+        <v>13.843934260904083</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.798455580569557</v>
+        <v>15.036328132289331</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>16.009464665111576</v>
+        <v>16.286981483416568</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>17.220473749653593</v>
+        <v>17.537634834543809</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>22.138155546741849</v>
+        <v>22.545888895588554</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12246,23 +12246,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>15.724507718584153</v>
+        <v>16.032688673550634</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.499420845393121</v>
+        <v>18.861986674765454</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>18.499420845393121</v>
+        <v>18.861986674765454</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.499420845393121</v>
+        <v>18.861986674765454</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.782333875000965</v>
+        <v>24.248438283234197</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12301,23 +12301,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>14.666276341964496</v>
+        <v>14.938311467227358</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>16.648938212981339</v>
+        <v>16.949157403527394</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>17.254442755252349</v>
+        <v>17.574484079091011</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>17.859947297523355</v>
+        <v>18.199810754654631</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>22.960244710871407</v>
+        <v>23.397163589411377</v>
       </c>
       <c r="K106" s="75"/>
     </row>
